--- a/メール集.xlsx
+++ b/メール集.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2402F0-A8BA-4316-80A5-2AA9724A8804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79F8FD3-C694-4D7E-ABD9-AD833B3834B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8B6D7B9D-2ABA-4270-AF61-EEFE1DDE73AE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8B6D7B9D-2ABA-4270-AF61-EEFE1DDE73AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="77">
   <si>
     <t>寝具の発注に関しまして、センターにfaxが届きました。4/2（水）に納品となっています。
 届きましたら一旦ゲストルームに避難させる必要があるかなと思います。ご確認の程何卒宜しくお願い致します。</t>
@@ -3134,12 +3135,499 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業内容</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>農業様</t>
+    <rPh sb="0" eb="3">
+      <t>ノウギョウサマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DeAi様（10名）</t>
+    <rPh sb="4" eb="5">
+      <t>サマ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルプス様（22名）</t>
+    <rPh sb="4" eb="5">
+      <t>サマ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>亜細亜様（1名）</t>
+    <rPh sb="0" eb="3">
+      <t>アジア</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サマ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>農業様（6名）</t>
+    <rPh sb="0" eb="3">
+      <t>ノウギョウサマ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IPM様（2名）</t>
+    <rPh sb="3" eb="4">
+      <t>サマ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マルエツ様(37名）</t>
+    <rPh sb="4" eb="5">
+      <t>サマ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>✓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゆうちょ銀行
+メール確認</t>
+    <rPh sb="4" eb="6">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SBI銀行
+メール確認</t>
+    <rPh sb="3" eb="5">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象外</t>
+  </si>
+  <si>
+    <t>在留カード、
+パスポート
+スキャン済</t>
+    <rPh sb="0" eb="2">
+      <t>ザイリュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゆうちょ銀行
+スキャン済</t>
+    <rPh sb="4" eb="6">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SBI銀行
+スキャン済</t>
+    <rPh sb="3" eb="5">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>監理団体</t>
+  </si>
+  <si>
+    <t>監理団体</t>
+    <rPh sb="0" eb="4">
+      <t>カンリダンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注意点</t>
+    <rPh sb="0" eb="3">
+      <t>チュウイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お渡し済み</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配属日</t>
+    <rPh sb="0" eb="3">
+      <t>ハイゾクビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発送予定日</t>
+    <rPh sb="0" eb="2">
+      <t>ハッソウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ヨテイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>届け先確認済</t>
+    <rPh sb="0" eb="1">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人数</t>
+    <rPh sb="0" eb="2">
+      <t>ニンズウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伝票記入済</t>
+    <rPh sb="0" eb="2">
+      <t>デンピョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出発時間
+お知らせ</t>
+    <rPh sb="0" eb="2">
+      <t>シュッパツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※配属荷物発送状(5/9まで）</t>
+    <rPh sb="1" eb="3">
+      <t>ハイゾク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニモツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハッソウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DeAi様</t>
+    <rPh sb="4" eb="5">
+      <t>サマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルプス様</t>
+    <rPh sb="4" eb="5">
+      <t>サマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>亜細亜様</t>
+    <rPh sb="0" eb="3">
+      <t>アジア</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IPM様</t>
+    <rPh sb="3" eb="4">
+      <t>サマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>⁕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>配属前の注意点（ベトナム語版）は、オアン様のボックスに保管しております。</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>ハイゾク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>チュウイテン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>サマ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ホカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お願い事項</t>
+  </si>
+  <si>
+    <t>期限</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヤマト運輸の伝票の発注</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100枚セット</t>
+    <rPh sb="3" eb="4">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配属後お部屋のチェック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>法的保護講習</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>警察講話</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5月入国対象特別講習</t>
+    <rPh sb="6" eb="10">
+      <t>トクベツコウシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了証明書と転入届の書類お渡し</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ショウメイショ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>テンニュウトドケ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショルイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A4用紙の発注</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>農業様3名
+(4/30、5/1配属）</t>
+    <rPh sb="0" eb="3">
+      <t>ノウギョウサマ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハイゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>亜細亜様1名(5/8配属）
+アルプス様22名(5/9配属）
+農業様3名(5/9配属）</t>
+    <rPh sb="0" eb="3">
+      <t>アジア</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サマ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハイゾク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>サマ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハイゾク</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ノウギョウサマ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ハイゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※当番チームと役割分担は5/16まで作成いたしました。海野の机の引き出しに保管しております。</t>
+    <rPh sb="1" eb="3">
+      <t>トウバン</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ヤクワリブンタン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ウミノ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ツクエ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ホカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業務進捗報告書</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゆうちょ口座開設</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※お願い事</t>
+    <rPh sb="2" eb="3">
+      <t>ネガ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゴト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="183" formatCode="m/d"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3184,21 +3672,202 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -3207,12 +3876,117 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3530,7 +4304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170497CF-6BCF-4DB7-9596-CA1BA915B7AD}">
   <dimension ref="B6:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+    <sheetView topLeftCell="B14" workbookViewId="0">
       <selection activeCell="E6" sqref="E6:E14"/>
     </sheetView>
   </sheetViews>
@@ -3648,4 +4422,580 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9CAC3E-F03C-47D3-ACBB-6B3157B3A3EA}">
+  <dimension ref="B1:I38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="18.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" customWidth="1"/>
+    <col min="5" max="5" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="32.4" x14ac:dyDescent="0.45">
+      <c r="B1" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="2:9" ht="54" x14ac:dyDescent="0.45">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B10" s="4">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B11" s="13"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="36"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="36" x14ac:dyDescent="0.45">
+      <c r="B14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="14">
+        <v>45777</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2</v>
+      </c>
+      <c r="F15" s="15">
+        <v>45775</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B16" s="4">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="14">
+        <v>45778</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="15">
+        <v>45775</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B17" s="4">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="14">
+        <v>45786</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B18" s="4">
+        <v>4</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="14">
+        <v>45786</v>
+      </c>
+      <c r="E18" s="3">
+        <v>10</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B19" s="4">
+        <v>5</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="14">
+        <v>45789</v>
+      </c>
+      <c r="E19" s="3">
+        <v>22</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B20" s="4">
+        <v>6</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="14">
+        <v>45785</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B21" s="4">
+        <v>7</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="14">
+        <v>45796</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B22" s="4">
+        <v>8</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="14">
+        <v>45793</v>
+      </c>
+      <c r="E22" s="3">
+        <v>37</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="2:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B24" s="16"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B25" s="16"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="31"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="15">
+        <v>45775</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" s="31"/>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B30" s="4">
+        <v>2</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="31"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="18"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B31" s="2">
+        <v>3</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="33"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="18"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B32" s="2"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="33"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="18"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B33" s="2"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="33"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="34" spans="2:9" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="19">
+        <v>4</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="29"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="15">
+        <v>45775</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="H34" s="34"/>
+      <c r="I34" s="33"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B35" s="19"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="15">
+        <v>45784</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="H35" s="34"/>
+      <c r="I35" s="33"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B36" s="4">
+        <v>5</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="31"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="18"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="C34:E35"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>